--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -536,6 +536,24 @@
   </si>
   <si>
     <t>セイコーエプソン(株) - test</t>
+  </si>
+  <si>
+    <t>bhrenp4980855739</t>
+  </si>
+  <si>
+    <t>2293777228</t>
+  </si>
+  <si>
+    <t>aoixld8297581419</t>
+  </si>
+  <si>
+    <t>1652996850</t>
+  </si>
+  <si>
+    <t>aleixy7714770670</t>
+  </si>
+  <si>
+    <t>3201251280</t>
   </si>
 </sst>
 </file>
@@ -545,7 +563,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -594,6 +612,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1033,73 +1066,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="87.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="138.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="108.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="87.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="138.83203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="108.5" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="117.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="86.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1352,7 +1385,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1488,7 +1521,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1573,7 +1606,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1711,7 +1744,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1788,7 +1821,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -1922,8 +1955,8 @@
       <c r="AW4" s="19">
         <v>334242423462</v>
       </c>
-      <c r="AX4" s="1">
-        <v>23424242424</v>
+      <c r="AX4" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2000,7 +2033,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2134,8 +2167,8 @@
       <c r="AW5" s="19">
         <v>334242423472</v>
       </c>
-      <c r="AX5" s="1">
-        <v>23313123233</v>
+      <c r="AX5" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="177">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -554,6 +554,12 @@
   </si>
   <si>
     <t>3201251280</t>
+  </si>
+  <si>
+    <t>fhvgqv1684049156</t>
+  </si>
+  <si>
+    <t>7496325515</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -612,6 +618,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1385,7 +1396,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1521,7 +1532,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1606,7 +1617,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1744,7 +1755,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1821,7 +1832,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -1956,7 +1967,7 @@
         <v>334242423462</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2033,7 +2044,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2168,7 +2179,7 @@
         <v>334242423472</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_UnassignRule_APJ_JAPAN_ADM_ITOM_IM_VERTICA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="179">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -560,6 +560,12 @@
   </si>
   <si>
     <t>7496325515</t>
+  </si>
+  <si>
+    <t>aotepb3680644010</t>
+  </si>
+  <si>
+    <t>3995651513</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -618,6 +624,11 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1396,7 +1407,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>101</v>
@@ -1532,7 +1543,7 @@
         <v>334242423442</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>82</v>
@@ -1617,7 +1628,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3" s="27" t="s">
         <v>127</v>
@@ -1755,7 +1766,7 @@
         <v>334242423452</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AY3" s="2" t="s">
         <v>82</v>
@@ -1832,7 +1843,7 @@
         <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E4" s="27" t="s">
         <v>148</v>
@@ -1967,7 +1978,7 @@
         <v>334242423462</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AY4" s="2" t="s">
         <v>82</v>
@@ -2044,7 +2055,7 @@
         <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>148</v>
@@ -2179,7 +2190,7 @@
         <v>334242423472</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AY5" s="2" t="s">
         <v>82</v>
